--- a/data/results/advanced_analysis/visualization/brand_sentiment_stats.xlsx
+++ b/data/results/advanced_analysis/visualization/brand_sentiment_stats.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>90.50%</t>
+          <t>90.22%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.31%</t>
+          <t>5.59%</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -623,17 +623,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>94.49%</t>
+          <t>96.12%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.38%</t>
+          <t>1.63%</t>
         </is>
       </c>
       <c r="E7" t="n">
